--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_12.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-239506.6068533936</v>
+        <v>-246517.3359693881</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516701</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791241</v>
+        <v>419463.0933791244</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>46.55459554066856</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>241.1399497313042</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -750,10 +750,10 @@
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>69.98930104614928</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>207.9625118881446</v>
       </c>
       <c r="V3" t="n">
-        <v>220.3146016126436</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>227.816073408046</v>
+        <v>215.194376992996</v>
       </c>
       <c r="X3" t="n">
         <v>187.4140068734885</v>
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.46420779995617</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,7 +826,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>224.6338900770376</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>220.8809405715231</v>
@@ -893,25 +893,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>349.8336591403096</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>12.725494085322</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>81.94172262085208</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -941,13 +941,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,13 +956,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>126.7182056565715</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -981,10 +981,10 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E6" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>123.1874880556995</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>118.8592197488542</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968093</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,13 +1051,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>87.95308749070807</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>123.2199624205394</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>16.32894768194338</v>
+        <v>135.723540618704</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>52.20821923003286</v>
       </c>
       <c r="E10" t="n">
-        <v>71.70679288809137</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1342,22 +1342,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344422</v>
+        <v>243.145188097729</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362796</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214455</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>12.54612284480581</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1528,25 +1528,25 @@
         <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993869</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177841</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465753</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>25.0038006092942</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681693</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>60.6851687145609</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767911</v>
+        <v>57.45968988900721</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>310.5084051007669</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
-        <v>327.4793772398889</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>25.97124652368957</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372783</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362796</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>106.1739913681374</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>25.94974245575079</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465753</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442479</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.49320096681693</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338897</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I16" t="n">
-        <v>60.6851687145609</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901682</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>28.63514016675211</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="17">
@@ -1856,13 +1856,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2965,7 +2965,7 @@
         <v>72.58023888723245</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380425</v>
       </c>
       <c r="I31" t="n">
         <v>37.77220663497643</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.153340954212</v>
+        <v>283.7098784815731</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093889</v>
       </c>
       <c r="D32" t="n">
-        <v>275.250260195428</v>
+        <v>268.8067977227891</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619111</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852511</v>
+        <v>299.9455743126122</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568059</v>
+        <v>296.251208184167</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291033</v>
+        <v>208.0623001564644</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838885</v>
+        <v>24.17382596574997</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828898</v>
+        <v>52.06849973565009</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434676</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970375</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.905821430807</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813245</v>
+        <v>254.5091249086856</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162028</v>
+        <v>272.7781592435639</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158951</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.0194812043173</v>
+        <v>70.57601873167842</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459971</v>
+        <v>55.72314698196082</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643943</v>
+        <v>41.29686219380055</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931855</v>
+        <v>41.22330424667966</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908581</v>
+        <v>42.97275566644693</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147795</v>
+        <v>53.79159358883906</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804999</v>
+        <v>41.14384575541111</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922192</v>
+        <v>18.98356133658304</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367784</v>
+        <v>9.882059701038955</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920516</v>
+        <v>88.00800320656627</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407384</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.8044840678082</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273131</v>
+        <v>150.5396319546742</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480632</v>
+        <v>167.7171782754243</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947758</v>
+        <v>118.9595992221369</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.1010207988132</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C35" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D35" t="n">
         <v>251.2267481799146</v>
@@ -3275,16 +3275,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F35" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V35" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W35" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F37" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H37" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="38">
@@ -3503,7 +3503,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C38" t="n">
-        <v>258.8837771665143</v>
+        <v>258.8837771665144</v>
       </c>
       <c r="D38" t="n">
         <v>251.2267481799146</v>
@@ -3512,16 +3512,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F38" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697377</v>
       </c>
       <c r="G38" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H38" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875493</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277562</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059316</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879324</v>
+        <v>208.3257718879325</v>
       </c>
       <c r="W38" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X38" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y38" t="n">
         <v>262.1658326730205</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880394</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908635</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092607</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.64325470380518</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357245</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.21154404596459</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253663</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.40351179370856</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.4279536636918</v>
       </c>
       <c r="T40" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U40" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V40" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W40" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X40" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593875</v>
       </c>
     </row>
     <row r="41">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3989,13 +3989,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
@@ -4037,10 +4037,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1024.317172139558</v>
+        <v>651.4251184290133</v>
       </c>
       <c r="C2" t="n">
-        <v>1024.317172139558</v>
+        <v>604.40027444854</v>
       </c>
       <c r="D2" t="n">
-        <v>1024.317172139558</v>
+        <v>604.40027444854</v>
       </c>
       <c r="E2" t="n">
-        <v>1024.317172139558</v>
+        <v>201.8167495650846</v>
       </c>
       <c r="F2" t="n">
-        <v>780.7414653402611</v>
+        <v>188.9627151354664</v>
       </c>
       <c r="G2" t="n">
-        <v>367.5787098282643</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475494</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475494</v>
+        <v>186.1530196651666</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475494</v>
+        <v>545.1353756926284</v>
       </c>
       <c r="L2" t="n">
-        <v>483.8277400569157</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="M2" t="n">
-        <v>1022.086525067008</v>
+        <v>1038.455667411157</v>
       </c>
       <c r="N2" t="n">
-        <v>1549.89780870447</v>
+        <v>1450.277176783646</v>
       </c>
       <c r="O2" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596798</v>
+        <v>1890.316777675974</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S2" t="n">
-        <v>2008.269414678798</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T2" t="n">
-        <v>1784.768812238214</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="U2" t="n">
-        <v>1784.768812238214</v>
+        <v>1819.409608251522</v>
       </c>
       <c r="V2" t="n">
-        <v>1784.768812238214</v>
+        <v>1819.409608251522</v>
       </c>
       <c r="W2" t="n">
-        <v>1413.769777206502</v>
+        <v>1448.410573219809</v>
       </c>
       <c r="X2" t="n">
-        <v>1024.317172139558</v>
+        <v>1448.410573219809</v>
       </c>
       <c r="Y2" t="n">
-        <v>1024.317172139558</v>
+        <v>1051.91986414041</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.813417902142</v>
+        <v>791.481975908281</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622342</v>
+        <v>640.8277454683732</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837145</v>
+        <v>510.7387780898536</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946022</v>
+        <v>374.2922872007413</v>
       </c>
       <c r="F3" t="n">
-        <v>114.191923077734</v>
+        <v>249.8604810838731</v>
       </c>
       <c r="G3" t="n">
-        <v>114.191923077734</v>
+        <v>129.8006631557375</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569813</v>
+        <v>361.2423928185649</v>
       </c>
       <c r="L3" t="n">
-        <v>846.8008913552947</v>
+        <v>844.8084787168782</v>
       </c>
       <c r="M3" t="n">
-        <v>1018.276226875478</v>
+        <v>1358.411157326567</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875478</v>
+        <v>1358.411157326567</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466459</v>
+        <v>1435.175877545635</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635811</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.93524953568</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.88829441323</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784297</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917584</v>
+        <v>1311.899604923723</v>
       </c>
       <c r="X3" t="n">
-        <v>986.923969267596</v>
+        <v>1122.592527273735</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431033</v>
+        <v>943.2783103492424</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>176.5900847576771</v>
+        <v>369.0342994773763</v>
       </c>
       <c r="C4" t="n">
-        <v>176.5900847576771</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="D4" t="n">
-        <v>176.5900847576771</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="E4" t="n">
-        <v>176.5900847576771</v>
+        <v>198.8291815433655</v>
       </c>
       <c r="F4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="G4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="H4" t="n">
-        <v>176.5900847576771</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="I4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="U4" t="n">
-        <v>659.5038901782084</v>
+        <v>819.0492799304679</v>
       </c>
       <c r="V4" t="n">
-        <v>659.5038901782084</v>
+        <v>592.146360660733</v>
       </c>
       <c r="W4" t="n">
-        <v>659.5038901782084</v>
+        <v>592.146360660733</v>
       </c>
       <c r="X4" t="n">
-        <v>425.4235679611915</v>
+        <v>592.146360660733</v>
       </c>
       <c r="Y4" t="n">
-        <v>202.3115067778348</v>
+        <v>369.0342994773763</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>950.3519961655297</v>
+        <v>1091.210095277684</v>
       </c>
       <c r="C5" t="n">
-        <v>557.1764946684602</v>
+        <v>1091.210095277684</v>
       </c>
       <c r="D5" t="n">
-        <v>557.1764946684602</v>
+        <v>1091.210095277684</v>
       </c>
       <c r="E5" t="n">
-        <v>203.809162203501</v>
+        <v>688.6265703942281</v>
       </c>
       <c r="F5" t="n">
-        <v>190.9551277738829</v>
+        <v>271.7321319242059</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>262.6097804526131</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>400.4856027838003</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="M5" t="n">
-        <v>1201.710316572948</v>
+        <v>893.8058945023291</v>
       </c>
       <c r="N5" t="n">
-        <v>1201.710316572948</v>
+        <v>1407.408573112018</v>
       </c>
       <c r="O5" t="n">
-        <v>1641.749917465277</v>
+        <v>1847.448174004346</v>
       </c>
       <c r="P5" t="n">
-        <v>1989.937409596798</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="S5" t="n">
-        <v>2136.790056023269</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="T5" t="n">
-        <v>2136.790056023269</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="U5" t="n">
-        <v>2136.790056023269</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="V5" t="n">
-        <v>2136.790056023269</v>
+        <v>1851.661735376339</v>
       </c>
       <c r="W5" t="n">
-        <v>2136.790056023269</v>
+        <v>1480.662700344627</v>
       </c>
       <c r="X5" t="n">
-        <v>1747.337450956325</v>
+        <v>1091.210095277684</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.846741876927</v>
+        <v>1091.210095277684</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>579.9909328903889</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>429.3367024504811</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719615</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442687</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144823</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144823</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="L6" t="n">
-        <v>640.1767275127955</v>
+        <v>474.3573750382923</v>
       </c>
       <c r="M6" t="n">
-        <v>1018.276226875478</v>
+        <v>987.9600536479807</v>
       </c>
       <c r="N6" t="n">
-        <v>1018.276226875478</v>
+        <v>1327.194567652344</v>
       </c>
       <c r="O6" t="n">
-        <v>1534.796509466459</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="P6" t="n">
-        <v>1940.417878182856</v>
+        <v>1840.797246262032</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816923</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737747</v>
+        <v>2051.245294714987</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737747</v>
+        <v>1916.314617614856</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813765</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.267662492406</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863473</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.61041499676</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.303337346772</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222793</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.7007773287657</v>
+        <v>330.2307852167459</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475494</v>
+        <v>330.2307852167459</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475494</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475494</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475494</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475494</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475494</v>
+        <v>174.5976721192606</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475494</v>
+        <v>41.50324675633846</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>123.3382878662803</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>287.4659277400801</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>473.7575060783441</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095534</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512614</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.52807292784</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978909</v>
       </c>
       <c r="S7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="T7" t="n">
-        <v>944.9426819363074</v>
+        <v>740.1341854804402</v>
       </c>
       <c r="U7" t="n">
-        <v>944.9426819363074</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="V7" t="n">
-        <v>944.9426819363074</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="W7" t="n">
-        <v>856.1011794204406</v>
+        <v>454.6953937223412</v>
       </c>
       <c r="X7" t="n">
-        <v>622.0208572034237</v>
+        <v>330.2307852167459</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.908796020067</v>
+        <v>330.2307852167459</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1681.888704297768</v>
+        <v>1319.948424733439</v>
       </c>
       <c r="C8" t="n">
-        <v>1665.394817750351</v>
+        <v>1182.85393926</v>
       </c>
       <c r="D8" t="n">
-        <v>1279.953688967018</v>
+        <v>797.412810476668</v>
       </c>
       <c r="E8" t="n">
-        <v>877.3701640835627</v>
+        <v>797.412810476668</v>
       </c>
       <c r="F8" t="n">
-        <v>460.4757256135405</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H8" t="n">
         <v>47.31297010154361</v>
@@ -4802,22 +4802,22 @@
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>173.6308686433316</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="L8" t="n">
-        <v>666.9511603618604</v>
+        <v>318.7636682303387</v>
       </c>
       <c r="M8" t="n">
-        <v>1212.952060406441</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1740.763344043903</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2180.802944936232</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4826,28 +4826,28 @@
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303753</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863169</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297768</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="V8" t="n">
-        <v>1681.888704297768</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="W8" t="n">
-        <v>1681.888704297768</v>
+        <v>2109.895775511779</v>
       </c>
       <c r="X8" t="n">
-        <v>1681.888704297768</v>
+        <v>1720.443170444836</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.888704297768</v>
+        <v>1720.443170444836</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>272.5108437565973</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>858.0088487631995</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2151.633694533565</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>307.4482789898337</v>
+        <v>100.0485450813748</v>
       </c>
       <c r="C10" t="n">
-        <v>307.4482789898337</v>
+        <v>100.0485450813748</v>
       </c>
       <c r="D10" t="n">
-        <v>307.4482789898337</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>235.0171750624687</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4990,22 +4990,22 @@
         <v>824.8590032756731</v>
       </c>
       <c r="T10" t="n">
-        <v>824.8590032756731</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="U10" t="n">
-        <v>824.8590032756731</v>
+        <v>589.1399514439072</v>
       </c>
       <c r="V10" t="n">
-        <v>824.8590032756731</v>
+        <v>323.1606062647314</v>
       </c>
       <c r="W10" t="n">
-        <v>541.5286012068507</v>
+        <v>323.1606062647314</v>
       </c>
       <c r="X10" t="n">
-        <v>307.4482789898337</v>
+        <v>323.1606062647314</v>
       </c>
       <c r="Y10" t="n">
-        <v>307.4482789898337</v>
+        <v>100.0485450813748</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1691.856237801876</v>
+        <v>1712.892289341942</v>
       </c>
       <c r="C11" t="n">
-        <v>1370.477011451</v>
+        <v>1391.513062991066</v>
       </c>
       <c r="D11" t="n">
-        <v>1056.832157813862</v>
+        <v>1391.513062991066</v>
       </c>
       <c r="E11" t="n">
-        <v>726.0449080766006</v>
+        <v>1060.725813253805</v>
       </c>
       <c r="F11" t="n">
-        <v>380.9467447527722</v>
+        <v>715.6276499299762</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527722</v>
+        <v>374.2611695641732</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5066,25 +5066,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S11" t="n">
-        <v>3011.239105293021</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T11" t="n">
-        <v>2859.534777998631</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="U11" t="n">
-        <v>2675.578323579424</v>
+        <v>2954.252057911387</v>
       </c>
       <c r="V11" t="n">
-        <v>2662.905472221033</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="W11" t="n">
-        <v>2662.905472221033</v>
+        <v>2683.941523761099</v>
       </c>
       <c r="X11" t="n">
-        <v>2345.249142300284</v>
+        <v>2366.28519384035</v>
       </c>
       <c r="Y11" t="n">
-        <v>2020.554708367079</v>
+        <v>2041.590759907145</v>
       </c>
     </row>
     <row r="12">
@@ -5124,19 +5124,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L12" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M12" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N12" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O12" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>511.1396386607282</v>
+        <v>460.228588399884</v>
       </c>
       <c r="C13" t="n">
-        <v>412.7307958729114</v>
+        <v>460.228588399884</v>
       </c>
       <c r="D13" t="n">
-        <v>328.8939579216201</v>
+        <v>376.3917504485926</v>
       </c>
       <c r="E13" t="n">
-        <v>245.1314209270165</v>
+        <v>292.629213453989</v>
       </c>
       <c r="F13" t="n">
-        <v>219.8750566752043</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="G13" t="n">
-        <v>123.4172779208437</v>
+        <v>207.0995538131558</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5200,16 +5200,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5218,31 +5218,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q13" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1365.712833143251</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1201.790056457679</v>
       </c>
       <c r="U13" t="n">
-        <v>1149.68534223645</v>
+        <v>988.1475398457735</v>
       </c>
       <c r="V13" t="n">
-        <v>1149.68534223645</v>
+        <v>793.9644698127915</v>
       </c>
       <c r="W13" t="n">
-        <v>938.1512153138212</v>
+        <v>793.9644698127915</v>
       </c>
       <c r="X13" t="n">
-        <v>775.8671682429983</v>
+        <v>631.6804227419685</v>
       </c>
       <c r="Y13" t="n">
-        <v>624.5513822058356</v>
+        <v>573.6403319449914</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1688.124554843851</v>
+        <v>1135.015795124459</v>
       </c>
       <c r="C14" t="n">
-        <v>1366.745328492975</v>
+        <v>813.6365687735838</v>
       </c>
       <c r="D14" t="n">
-        <v>1053.100474855837</v>
+        <v>499.9917151364456</v>
       </c>
       <c r="E14" t="n">
-        <v>722.3132251185755</v>
+        <v>499.9917151364456</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185755</v>
+        <v>154.8935518126173</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527726</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="H14" t="n">
-        <v>128.6599694654572</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U14" t="n">
-        <v>3011.239105293021</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2740.928571142733</v>
+        <v>2405.267789429136</v>
       </c>
       <c r="W14" t="n">
-        <v>2441.725811257214</v>
+        <v>2106.065029543617</v>
       </c>
       <c r="X14" t="n">
-        <v>2124.069481336465</v>
+        <v>1788.408699622868</v>
       </c>
       <c r="Y14" t="n">
-        <v>2016.823025409054</v>
+        <v>1463.714265689662</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>499.061390269368</v>
+        <v>471.1567075134116</v>
       </c>
       <c r="C16" t="n">
-        <v>499.061390269368</v>
+        <v>471.1567075134116</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029531</v>
+        <v>387.3198695621202</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083495</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675164</v>
+        <v>303.5573325675166</v>
       </c>
       <c r="G16" t="n">
-        <v>207.0995538131558</v>
+        <v>207.099553813156</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208437</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774627</v>
+        <v>102.7129143774626</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581892</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138162</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="S16" t="n">
-        <v>1444.627927593278</v>
+        <v>1467.808257807687</v>
       </c>
       <c r="T16" t="n">
-        <v>1280.705150907706</v>
+        <v>1303.885481122115</v>
       </c>
       <c r="U16" t="n">
-        <v>1067.062634295801</v>
+        <v>1303.885481122115</v>
       </c>
       <c r="V16" t="n">
-        <v>872.8795642628195</v>
+        <v>1109.702411089133</v>
       </c>
       <c r="W16" t="n">
-        <v>661.345437340191</v>
+        <v>898.1682841665047</v>
       </c>
       <c r="X16" t="n">
-        <v>499.061390269368</v>
+        <v>735.8842370956817</v>
       </c>
       <c r="Y16" t="n">
-        <v>499.061390269368</v>
+        <v>584.5684510585189</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
@@ -5501,13 +5501,13 @@
         <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5552,7 +5552,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.6987703122995</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222414</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960412</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343052</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655144</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072225</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838011</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414178</v>
       </c>
       <c r="C20" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D20" t="n">
-        <v>1098.796330498592</v>
+        <v>1098.796330498593</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975453</v>
+        <v>827.8895422975456</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099315</v>
+        <v>542.6718405099318</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803435</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5789,10 +5789,10 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
         <v>1882.877496443165</v>
@@ -5829,16 +5829,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5917,13 +5917,13 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>499.953029634305</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>812.1990332879427</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P22" t="n">
         <v>1094.779966106229</v>
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E23" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6026,13 +6026,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y23" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="24">
@@ -6066,25 +6066,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>62.11912770411553</v>
+        <v>830.5413617456916</v>
       </c>
       <c r="M24" t="n">
-        <v>568.1699486069232</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="N24" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O24" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P24" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6139,31 +6139,31 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>278.5901810446697</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>442.7178209184696</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M25" t="n">
-        <v>629.0093992567336</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N25" t="n">
-        <v>812.1990332879427</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O25" t="n">
-        <v>974.9038003296507</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P25" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q25" t="n">
         <v>1098.20216247628</v>
@@ -6203,19 +6203,19 @@
         <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218604</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
@@ -6236,25 +6236,25 @@
         <v>1895.47226483567</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.334910202705</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O26" t="n">
-        <v>3049.425872824607</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P26" t="n">
         <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
         <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
         <v>3307.298104174144</v>
@@ -6306,16 +6306,16 @@
         <v>73.36485894755026</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="L27" t="n">
-        <v>579.4156798503576</v>
+        <v>556.9309448458635</v>
       </c>
       <c r="M27" t="n">
-        <v>579.4156798503576</v>
+        <v>1184.702594472545</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="O27" t="n">
         <v>1751.713933651898</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517124</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414155</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878063</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746016</v>
       </c>
       <c r="H28" t="n">
         <v>111.5186030232841</v>
@@ -6382,52 +6382,52 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192011</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904115</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O28" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P28" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q28" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R28" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V28" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W28" t="n">
-        <v>861.9084564286452</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988166</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.5974356026483</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="29">
@@ -6437,28 +6437,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718127</v>
+        <v>1293.722338718128</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218602</v>
+        <v>986.0794951218609</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390263</v>
+        <v>664.125737939027</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142178</v>
+        <v>345.9036637142185</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J29" t="n">
         <v>311.0659935859517</v>
@@ -6473,40 +6473,40 @@
         <v>1988.523626565243</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2609.386271932278</v>
       </c>
       <c r="O29" t="n">
         <v>3049.425872824607</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379501</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377514</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164851</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.01167084836</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>872.7308420875812</v>
+        <v>872.7308420875813</v>
       </c>
       <c r="C30" t="n">
-        <v>722.0766116476734</v>
+        <v>722.0766116476735</v>
       </c>
       <c r="D30" t="n">
-        <v>591.9876442691537</v>
+        <v>591.9876442691539</v>
       </c>
       <c r="E30" t="n">
         <v>455.5411533800415</v>
@@ -6531,46 +6531,46 @@
         <v>331.1093472631733</v>
       </c>
       <c r="G30" t="n">
-        <v>211.0495293350377</v>
+        <v>211.0495293350378</v>
       </c>
       <c r="H30" t="n">
         <v>122.7521129356387</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672777</v>
       </c>
       <c r="K30" t="n">
-        <v>73.36485894755026</v>
+        <v>358.2210070908132</v>
       </c>
       <c r="L30" t="n">
-        <v>73.36485894755026</v>
+        <v>841.7870929891264</v>
       </c>
       <c r="M30" t="n">
-        <v>579.4156798503576</v>
+        <v>1469.558742615808</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615808</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206789</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
       </c>
       <c r="R30" t="n">
-        <v>2367.78335082125</v>
+        <v>2367.783350821251</v>
       </c>
       <c r="S30" t="n">
-        <v>2232.852673721119</v>
+        <v>2232.85267372112</v>
       </c>
       <c r="T30" t="n">
-        <v>2055.868861920027</v>
+        <v>2055.868861920028</v>
       </c>
       <c r="U30" t="n">
         <v>1845.80571859867</v>
@@ -6579,13 +6579,13 @@
         <v>1623.265716969737</v>
       </c>
       <c r="W30" t="n">
-        <v>1393.148471103023</v>
+        <v>1393.148471103024</v>
       </c>
       <c r="X30" t="n">
         <v>1203.841393453035</v>
       </c>
       <c r="Y30" t="n">
-        <v>1024.527176528542</v>
+        <v>1024.527176528543</v>
       </c>
     </row>
     <row r="31">
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985348</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.0656615517123</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414156</v>
+        <v>368.3732297414154</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878062</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.3698453879676</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.0564727746014</v>
       </c>
       <c r="H31" t="n">
         <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755029</v>
       </c>
       <c r="J31" t="n">
-        <v>136.642478079686</v>
+        <v>136.6424780796861</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192011</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225742</v>
+        <v>568.7078825225743</v>
       </c>
       <c r="M31" t="n">
         <v>848.0508225904116</v>
@@ -6643,7 +6643,7 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
@@ -6655,16 +6655,16 @@
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286445</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.768815498816</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026477</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918591</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303046</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800458</v>
+        <v>1193.020467401238</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463668</v>
+        <v>904.3560533993082</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057091</v>
+        <v>601.380725810811</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230769</v>
+        <v>302.1370811803392</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189322</v>
+        <v>91.97314162835521</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>682.8393851136178</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1176.159676832147</v>
       </c>
       <c r="M32" t="n">
-        <v>1612.500868940161</v>
+        <v>1833.81269745171</v>
       </c>
       <c r="N32" t="n">
-        <v>2245.585245304694</v>
+        <v>2361.623981089172</v>
       </c>
       <c r="O32" t="n">
-        <v>2790.897938924092</v>
+        <v>2801.663581981501</v>
       </c>
       <c r="P32" t="n">
-        <v>3244.358523782684</v>
+        <v>3149.851074113022</v>
       </c>
       <c r="Q32" t="n">
-        <v>3429.204083923633</v>
+        <v>3334.696634253971</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117257</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.162335939832</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380774</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761241</v>
+        <v>3073.747225696897</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394124</v>
+        <v>2845.559527281941</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131754</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154197</v>
+        <v>2312.946108946336</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.374510748462</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423762</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024684</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239487</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348364</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179682</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="L33" t="n">
-        <v>69.5475482407616</v>
+        <v>551.1212215006584</v>
       </c>
       <c r="M33" t="n">
-        <v>575.5983691435694</v>
+        <v>573.6059565051531</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183338</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965125</v>
+        <v>365.6713676929726</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918663</v>
+        <v>309.3853606404869</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237457</v>
+        <v>267.6713584245268</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123128</v>
+        <v>226.0316571652544</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546504</v>
+        <v>182.6248332597524</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834605</v>
+        <v>128.2898902407231</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431909</v>
+        <v>86.73045008374214</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703944</v>
+        <v>67.55513560234513</v>
       </c>
       <c r="K34" t="n">
-        <v>245.4092634067509</v>
+        <v>149.390176712287</v>
       </c>
       <c r="L34" t="n">
-        <v>514.809996007621</v>
+        <v>313.5178165860868</v>
       </c>
       <c r="M34" t="n">
-        <v>701.101574345885</v>
+        <v>611.4615154993335</v>
       </c>
       <c r="N34" t="n">
-        <v>884.2912083770942</v>
+        <v>794.6511495305426</v>
       </c>
       <c r="O34" t="n">
-        <v>1152.269068145873</v>
+        <v>1033.381832577063</v>
       </c>
       <c r="P34" t="n">
-        <v>1377.418326649521</v>
+        <v>1264.910118928625</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746643</v>
+        <v>1379.984435873658</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.00255738776</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451835</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501594</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.78596262502</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395512</v>
+        <v>835.7257283273693</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000934</v>
+        <v>666.3144371400721</v>
       </c>
       <c r="X34" t="n">
-        <v>606.7225700124411</v>
+        <v>546.1532258045803</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584491</v>
+        <v>436.9602755027487</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099316</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803432</v>
+        <v>261.1858216803425</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,19 +6959,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7014,25 +7014,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>62.11912770411553</v>
+        <v>207.7175872278004</v>
       </c>
       <c r="L36" t="n">
-        <v>62.11912770411553</v>
+        <v>691.2836731261136</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>1319.055322752795</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P36" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q36" t="n">
         <v>2380.454662679751</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>67.69877031229927</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>149.5338114222411</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>313.6614512960409</v>
+        <v>313.6614512960418</v>
       </c>
       <c r="M37" t="n">
-        <v>499.953029634305</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N37" t="n">
-        <v>683.1426636655142</v>
+        <v>683.1426636655151</v>
       </c>
       <c r="O37" t="n">
-        <v>845.8474307072222</v>
+        <v>845.8474307072231</v>
       </c>
       <c r="P37" t="n">
-        <v>1094.779966106229</v>
+        <v>965.7235964838017</v>
       </c>
       <c r="Q37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S37" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T37" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U37" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="38">
@@ -7166,25 +7166,25 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924229</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129445</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404064</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358935</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403516</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040978</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,7 +7193,7 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
         <v>3105.956385205777</v>
@@ -7217,7 +7217,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L39" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M39" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>235.9319791885594</v>
+        <v>235.9319791885598</v>
       </c>
       <c r="C40" t="n">
-        <v>197.4035979369571</v>
+        <v>197.4035979369575</v>
       </c>
       <c r="D40" t="n">
-        <v>173.4472215218803</v>
+        <v>173.4472215218806</v>
       </c>
       <c r="E40" t="n">
-        <v>149.5651460634913</v>
+        <v>149.5651460634915</v>
       </c>
       <c r="F40" t="n">
-        <v>123.9159479588727</v>
+        <v>123.9159479588729</v>
       </c>
       <c r="G40" t="n">
-        <v>87.33863074072673</v>
+        <v>87.33863074072684</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462923</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222421</v>
       </c>
       <c r="L40" t="n">
-        <v>407.3644357128483</v>
+        <v>313.6614512960418</v>
       </c>
       <c r="M40" t="n">
-        <v>593.6560140511123</v>
+        <v>499.9530296343059</v>
       </c>
       <c r="N40" t="n">
-        <v>776.8456480823215</v>
+        <v>812.1990332879436</v>
       </c>
       <c r="O40" t="n">
-        <v>939.5504151240295</v>
+        <v>974.9038003296516</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q40" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R40" t="n">
-        <v>1098.20216247628</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S40" t="n">
-        <v>1027.062815341238</v>
+        <v>1027.062815341239</v>
       </c>
       <c r="T40" t="n">
-        <v>923.0205001918806</v>
+        <v>923.0205001918814</v>
       </c>
       <c r="U40" t="n">
-        <v>769.25844511619</v>
+        <v>769.2584451161907</v>
       </c>
       <c r="V40" t="n">
-        <v>634.9558366194227</v>
+        <v>634.9558366194234</v>
       </c>
       <c r="W40" t="n">
-        <v>483.3021712330088</v>
+        <v>483.3021712330094</v>
       </c>
       <c r="X40" t="n">
-        <v>380.8985856984004</v>
+        <v>380.898585698401</v>
       </c>
       <c r="Y40" t="n">
-        <v>289.4632611974523</v>
+        <v>289.4632611974527</v>
       </c>
     </row>
     <row r="41">
@@ -7385,25 +7385,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099311</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7436,22 +7436,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T41" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U41" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X41" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y41" t="n">
         <v>1882.877496443165</v>
@@ -7488,25 +7488,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L42" t="n">
-        <v>62.11912770411553</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M42" t="n">
-        <v>568.1699486069232</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="N42" t="n">
-        <v>1223.947919817482</v>
+        <v>1314.578167032715</v>
       </c>
       <c r="O42" t="n">
-        <v>1740.468202408463</v>
+        <v>1831.098449623696</v>
       </c>
       <c r="P42" t="n">
-        <v>2146.089571124861</v>
+        <v>2236.719818340093</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
@@ -7579,40 +7579,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
-        <v>677.5630210573304</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>840.2677880990384</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P43" t="n">
-        <v>965.7235964838011</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7673,7 +7673,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T44" t="n">
         <v>2979.295701071061</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7728,16 +7728,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>62.11912770411553</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L45" t="n">
-        <v>62.11912770411553</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M45" t="n">
-        <v>568.1699486069232</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1521.202330875214</v>
       </c>
       <c r="O45" t="n">
         <v>1740.468202408463</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7807,49 +7807,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>143.9541688140574</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L46" t="n">
-        <v>437.1381783102856</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M46" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N46" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7976,19 +7976,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>598.0280491872197</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321639</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>565.0998139362575</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8064,13 +8064,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>265.5945316656586</v>
+        <v>611.1777065035426</v>
       </c>
       <c r="N3" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>170.2276803222912</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
@@ -8213,7 +8213,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
@@ -8222,19 +8222,19 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>312.6161996011358</v>
+        <v>149.7250515977273</v>
       </c>
       <c r="N5" t="n">
-        <v>149.1184913377841</v>
+        <v>667.9090757920148</v>
       </c>
       <c r="O5" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>380.3157541223159</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8295,22 +8295,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M6" t="n">
-        <v>474.3058082742435</v>
+        <v>611.1777065035426</v>
       </c>
       <c r="N6" t="n">
-        <v>85.37211285416666</v>
+        <v>428.0332381110993</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431197</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
         <v>327.7205688679246</v>
@@ -8450,13 +8450,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>270.6522400901343</v>
+        <v>271.1401458256686</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8468,7 +8468,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
-        <v>317.5329465084876</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8550,7 +8550,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>307.1647294625964</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8772,10 +8772,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>726.4998994499999</v>
+        <v>115.0989755892052</v>
       </c>
       <c r="N12" t="n">
         <v>747.7741039759435</v>
@@ -8787,7 +8787,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9003,28 +9003,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>603.5495674056833</v>
+        <v>436.3426582800314</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O15" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9477,19 +9477,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>603.5495674056833</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>90.06034685691823</v>
+        <v>429.0180294423952</v>
       </c>
       <c r="M24" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9954,19 +9954,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>278.2539578069999</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>658.1108392979577</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
@@ -10188,19 +10188,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>263.0728605086218</v>
       </c>
       <c r="L30" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>603.549567405683</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10431,10 +10431,10 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>603.5495674056833</v>
+        <v>115.0989755892056</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10662,28 +10662,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>122.408528569654</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>603.5495674056832</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P36" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,16 +10899,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L39" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>603.5495674056832</v>
+        <v>237.5738335035115</v>
       </c>
       <c r="N39" t="n">
         <v>747.7741039759435</v>
@@ -10920,7 +10920,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11136,16 +11136,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J42" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
         <v>747.7741039759435</v>
@@ -11157,7 +11157,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>327.7205688679246</v>
+        <v>236.1748646101141</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11376,19 +11376,19 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>603.5495674056833</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N45" t="n">
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>314.1682372053023</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23270,10 +23270,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>337.9528155621448</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>6.61871943671332</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>255.061305963979</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,7 +23416,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -23425,13 +23425,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>59.67056243513059</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338897</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457861</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>92.34293828778392</v>
       </c>
     </row>
     <row r="14">
@@ -23501,16 +23501,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>311.9815690384553</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23546,10 +23546,10 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.2734982257355</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993869</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D16" t="n">
-        <v>57.04872711602762</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442485</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>101.0744704177921</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>149.8026281767911</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2.486899575160351e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>924282.3358615228</v>
+        <v>924282.3358615227</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>924282.3358615231</v>
+        <v>924282.3358615228</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="C2" t="n">
         <v>216398.6137120282</v>
@@ -26326,7 +26326,7 @@
         <v>191230.8281092806</v>
       </c>
       <c r="G2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120281</v>
       </c>
       <c r="H2" t="n">
         <v>216398.6137120281</v>
@@ -26335,25 +26335,25 @@
         <v>216398.6137120282</v>
       </c>
       <c r="J2" t="n">
+        <v>216398.6137120281</v>
+      </c>
+      <c r="K2" t="n">
+        <v>216398.6137120281</v>
+      </c>
+      <c r="L2" t="n">
+        <v>216398.6137120281</v>
+      </c>
+      <c r="M2" t="n">
+        <v>216398.6137120283</v>
+      </c>
+      <c r="N2" t="n">
         <v>216398.6137120282</v>
       </c>
-      <c r="K2" t="n">
-        <v>216398.6137120282</v>
-      </c>
-      <c r="L2" t="n">
-        <v>216398.6137120279</v>
-      </c>
-      <c r="M2" t="n">
-        <v>216398.6137120282</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>216398.6137120281</v>
       </c>
-      <c r="O2" t="n">
-        <v>216398.6137120282</v>
-      </c>
       <c r="P2" t="n">
-        <v>216398.6137120282</v>
+        <v>216398.6137120283</v>
       </c>
     </row>
     <row r="3">
@@ -26363,46 +26363,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918557</v>
+        <v>173858.6570340552</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062204</v>
+        <v>22558.42953401344</v>
       </c>
       <c r="E3" t="n">
-        <v>112122.5614740446</v>
+        <v>112122.5614740445</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.3255366819</v>
+        <v>47425.32553668196</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399294</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.4717972855</v>
+        <v>62456.24177539668</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962306</v>
+        <v>43252.5244708111</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277122</v>
+        <v>27767.69404277125</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005335</v>
       </c>
       <c r="C4" t="n">
-        <v>167206.1032243105</v>
+        <v>173918.2775005336</v>
       </c>
       <c r="D4" t="n">
-        <v>154346.0890704043</v>
+        <v>154346.0890704044</v>
       </c>
       <c r="E4" t="n">
-        <v>74084.49552373751</v>
+        <v>74084.49552373745</v>
       </c>
       <c r="F4" t="n">
-        <v>74084.49552373751</v>
+        <v>74084.49552373747</v>
       </c>
       <c r="G4" t="n">
         <v>121843.4120153196</v>
       </c>
       <c r="H4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="I4" t="n">
         <v>121843.4120153196</v>
@@ -26445,13 +26445,13 @@
         <v>122593.9044797028</v>
       </c>
       <c r="L4" t="n">
-        <v>122338.3305792194</v>
+        <v>122204.9359701647</v>
       </c>
       <c r="M4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="N4" t="n">
-        <v>121843.4120153197</v>
+        <v>121843.4120153196</v>
       </c>
       <c r="O4" t="n">
         <v>121843.4120153196</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001375</v>
+        <v>65170.06753481722</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26488,22 +26488,22 @@
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
       </c>
       <c r="K5" t="n">
-        <v>63659.0452539195</v>
+        <v>63659.04525391952</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315425</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
         <v>58169.76931551966</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-199696.7389441518</v>
+        <v>-196548.3883573778</v>
       </c>
       <c r="C6" t="n">
-        <v>-17491.79065229605</v>
+        <v>-22689.73132332256</v>
       </c>
       <c r="D6" t="n">
-        <v>-22355.07294617133</v>
+        <v>-30091.36216956272</v>
       </c>
       <c r="E6" t="n">
-        <v>-48162.24858834213</v>
+        <v>-48371.98013503159</v>
       </c>
       <c r="F6" t="n">
-        <v>63960.31288570253</v>
+        <v>63750.58133901301</v>
       </c>
       <c r="G6" t="n">
-        <v>-11039.89315549299</v>
+        <v>-11039.89315549315</v>
       </c>
       <c r="H6" t="n">
-        <v>36385.43238118876</v>
+        <v>36385.4323811888</v>
       </c>
       <c r="I6" t="n">
+        <v>36385.43238118886</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-170140.2000615236</v>
+      </c>
+      <c r="K6" t="n">
+        <v>30145.6639784058</v>
+      </c>
+      <c r="L6" t="n">
+        <v>-29085.76216668755</v>
+      </c>
+      <c r="M6" t="n">
+        <v>-6867.092089622085</v>
+      </c>
+      <c r="N6" t="n">
         <v>36385.43238118888</v>
       </c>
-      <c r="J6" t="n">
-        <v>-176656.4852160965</v>
-      </c>
-      <c r="K6" t="n">
-        <v>30145.66397840587</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-25036.92495621543</v>
-      </c>
-      <c r="M6" t="n">
-        <v>-5815.397078434216</v>
-      </c>
-      <c r="N6" t="n">
-        <v>36385.43238118881</v>
-      </c>
       <c r="O6" t="n">
-        <v>8617.73833841765</v>
+        <v>8617.738338417563</v>
       </c>
       <c r="P6" t="n">
-        <v>36385.43238118886</v>
+        <v>36385.43238118895</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26713,13 +26713,13 @@
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="M2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="N2" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26808,22 +26808,22 @@
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="J4" t="n">
         <v>917.0607368443782</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443783</v>
+        <v>917.0607368443785</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293142</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014442</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
         <v>776.4890963014441</v>
@@ -26914,37 +26914,37 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="H2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>34.709617553464</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>78.07030221924585</v>
+      </c>
+      <c r="M2" t="n">
+        <v>17.58004954287448</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>34.70961755346406</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>71.62683974660688</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.02351201551345</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773707</v>
+        <v>659.3622249971648</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407305</v>
+        <v>117.1268713042789</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085237</v>
+        <v>59.28165692085246</v>
       </c>
       <c r="M2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346406</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344367</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485833</v>
+        <v>72.62154181506435</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>342.6891509414301</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>171.5855443540178</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,13 +27427,13 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>338.6857412035168</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27470,10 +27470,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>118.8592197488542</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>17.4251411892558</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27515,10 +27515,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>12.62169641505</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
@@ -27534,10 +27534,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>157.8917307044321</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27546,7 +27546,7 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.5715133615489</v>
@@ -27555,7 +27555,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
@@ -27591,16 +27591,16 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>38.68566165034639</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27613,25 +27613,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>48.72403049431131</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>238.9004973083221</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -27676,13 +27676,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>23.56016543998025</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27701,10 +27701,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>123.1874880556995</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938627135</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,13 +27771,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27822,25 +27822,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>192.5440105574261</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>108.5195565743074</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>372.9147988001553</v>
+        <v>253.5202058633946</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -27916,7 +27916,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28014,13 +28014,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>101.8685627364775</v>
       </c>
       <c r="E10" t="n">
-        <v>82.29643113129814</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
         <v>166.5715133615489</v>
@@ -28032,7 +28032,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,22 +28062,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.07831239473198</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="17">
@@ -28743,16 +28743,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668834</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>5.636002634529063</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28989,16 +28989,16 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>5.636002634529063</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.636002634529035</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29217,28 +29217,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J25" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>5.636002634528808</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K25" t="n">
-        <v>35.71049010668817</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>122.6619794737488</v>
@@ -29308,19 +29308,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="Q26" t="n">
-        <v>30.27223765901226</v>
+        <v>86.65052755599532</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
         <v>93.99127447431646</v>
@@ -29545,16 +29545,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901277</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>30.27223765901363</v>
       </c>
       <c r="R29" t="n">
         <v>93.99127447431646</v>
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>86.27291196566361</v>
+        <v>81.10808140893522</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="J34" t="n">
-        <v>106.336457300071</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>18.7144686125401</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>76.79385455031576</v>
       </c>
       <c r="P34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Q34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.7799197727098</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y35" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="36">
@@ -30141,37 +30141,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J37" t="n">
-        <v>35.7104901066881</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -30183,34 +30183,34 @@
         <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>37.61298457733418</v>
       </c>
       <c r="S38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y38" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="39">
@@ -30378,34 +30378,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="C40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="D40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="E40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="F40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="G40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="H40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="I40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="J40" t="n">
-        <v>130.3599693155844</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>5.636002634529945</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30414,40 +30414,40 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
       </c>
       <c r="P40" t="n">
-        <v>28.01250026485243</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="T40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="U40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="V40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="W40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="X40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.3599693155844</v>
+        <v>130.3599693155843</v>
       </c>
     </row>
     <row r="41">
@@ -30502,7 +30502,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>1.4210854715202e-13</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
@@ -30651,16 +30651,16 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="P43" t="n">
-        <v>5.636002634529405</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
@@ -30879,13 +30879,13 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L46" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>5.636002634529632</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -30897,7 +30897,7 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R46" t="n">
         <v>122.6619794737488</v>
@@ -31771,7 +31771,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -32479,7 +32479,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -33892,7 +33892,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>9.379164112033322e-13</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>444.779879456728</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344367</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>415.9813225984734</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34784,13 +34784,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>173.2074096163467</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>77.54012143340232</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
@@ -34933,7 +34933,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
@@ -34942,19 +34942,19 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>162.8911480034085</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="O5" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>230.0143068813907</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35015,22 +35015,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>381.9186862249316</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>342.6611252569326</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542307</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>236.7324157120106</v>
@@ -35170,13 +35170,13 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>127.5938369108969</v>
+        <v>128.0817426464313</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35188,7 +35188,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>227.4725996515694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35270,7 +35270,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>216.1765763066824</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35419,10 +35419,10 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P11" t="n">
         <v>351.7045375065877</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>634.1127774006881</v>
+        <v>22.71185353989332</v>
       </c>
       <c r="N12" t="n">
         <v>662.4019911217769</v>
@@ -35507,7 +35507,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P13" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>511.1624453563714</v>
+        <v>343.9555362307195</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O15" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257291</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
         <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488446</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -36039,16 +36039,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634529267</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>193.809314087321</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510916</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36197,19 +36197,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>511.1624453563714</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36285,16 +36285,16 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>193.809314087321</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O22" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>338.957682585477</v>
       </c>
       <c r="M24" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,13 +36513,13 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>118.3721477934981</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L25" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565488</v>
       </c>
       <c r="M25" t="n">
         <v>188.1733114527919</v>
@@ -36534,7 +36534,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q25" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36604,19 +36604,19 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N26" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O26" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.9849246700714</v>
+        <v>273.3632145670545</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>188.1936109500817</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>572.7387264437911</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
@@ -36841,16 +36841,16 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
-        <v>538.4757198201028</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656005</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>216.9849246700728</v>
       </c>
       <c r="R29" t="n">
         <v>56.37828989698318</v>
@@ -36908,19 +36908,19 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>173.4759251752884</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>511.1624453563711</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>362.6084404317796</v>
+        <v>475.3883602044895</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>551.5160606510915</v>
+        <v>664.2959804238013</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>550.8209026458572</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>458.0409948066587</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>48.65992738833034</v>
+        <v>43.49509683160194</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>511.1624453563714</v>
+        <v>22.71185353989366</v>
       </c>
       <c r="N33" t="n">
         <v>662.4019911217769</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791188</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>101.3761262993501</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220909</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>188.1733114527919</v>
+        <v>300.9532312255018</v>
       </c>
       <c r="N34" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371498</v>
+        <v>241.1421040873946</v>
       </c>
       <c r="P34" t="n">
-        <v>227.4234934380291</v>
+        <v>233.866955910668</v>
       </c>
       <c r="Q34" t="n">
-        <v>109.7932213102234</v>
+        <v>116.2366837828623</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>32.81159323632068</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>511.1624453563713</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>5.63600263452903</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565499</v>
       </c>
       <c r="M37" t="n">
         <v>188.1733114527919</v>
@@ -37479,10 +37479,10 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
-        <v>251.4470054535425</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>146.1108817260899</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
         <v>362.6084404317796</v>
@@ -37619,16 +37619,16 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>511.1624453563713</v>
+        <v>145.1867114541996</v>
       </c>
       <c r="N39" t="n">
         <v>662.4019911217769</v>
@@ -37640,7 +37640,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>88.29766032133992</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37710,19 +37710,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
-        <v>149.0995364028106</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110593</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>662.4019911217769</v>
@@ -37877,7 +37877,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>236.7324157120106</v>
+        <v>145.1867114542002</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,16 +37947,16 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
-        <v>185.0400343749588</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716079</v>
       </c>
       <c r="P43" t="n">
-        <v>126.7230387724876</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38096,19 +38096,19 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>511.1624453563714</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>221.4806783164134</v>
       </c>
       <c r="P45" t="n">
         <v>409.7185542589873</v>
@@ -38175,13 +38175,13 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L46" t="n">
-        <v>296.1454641376043</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M46" t="n">
-        <v>193.8093140873216</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
         <v>185.0400343749588</v>
@@ -38193,7 +38193,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
-        <v>3.456764010152483</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
